--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C525E170-5CE7-4777-88FC-2591B7A5C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FEEB778-0A1E-48AB-BDCE-4777BAF2ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,11 +32,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Descrition of the bug</t>
+  </si>
+  <si>
+    <t>Reproduction steps</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behaviour</t>
+  </si>
+  <si>
+    <t>Platform and Environment</t>
+  </si>
+  <si>
+    <t>Screenshot or Videos</t>
+  </si>
+  <si>
+    <t>Bug Report</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,8 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,12 +426,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FEEB778-0A1E-48AB-BDCE-4777BAF2ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C525E170-5CE7-4777-88FC-2591B7A5C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,52 +27,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Descrition of the bug</t>
-  </si>
-  <si>
-    <t>Reproduction steps</t>
-  </si>
-  <si>
-    <t>Expected Behavior</t>
-  </si>
-  <si>
-    <t>Actual Behaviour</t>
-  </si>
-  <si>
-    <t>Platform and Environment</t>
-  </si>
-  <si>
-    <t>Screenshot or Videos</t>
-  </si>
-  <si>
-    <t>Bug Report</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,14 +58,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,70 +374,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>